--- a/medicine/Soins infirmiers et profession infirmière/San_Francisco_General_Hospital/San_Francisco_General_Hospital.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/San_Francisco_General_Hospital/San_Francisco_General_Hospital.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Zuckerberg San Francisco General Hospital and Trauma Center (SFGH)  (SFGH) est le principal hôpital public de San Francisco, en Californie (États-Unis), et le seul centre de traumatologie de niveau 1 pour les 1,5 million d'habitants de San Francisco et le nord du comté de San Mateo[1]. À la suite d'un don de 75 millions de dollars du fondateur de Facebook Mark Zuckerberg et de son épouse Priscilla Chan en 2015 qui permet de moderniser l'hôpital, celui-ci est renommé en l'honneur du couple[2].   
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Zuckerberg San Francisco General Hospital and Trauma Center (SFGH)  (SFGH) est le principal hôpital public de San Francisco, en Californie (États-Unis), et le seul centre de traumatologie de niveau 1 pour les 1,5 million d'habitants de San Francisco et le nord du comté de San Mateo. À la suite d'un don de 75 millions de dollars du fondateur de Facebook Mark Zuckerberg et de son épouse Priscilla Chan en 2015 qui permet de moderniser l'hôpital, celui-ci est renommé en l'honneur du couple.   
 </t>
         </is>
       </c>
